--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1048.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1048.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.973016358658542</v>
+        <v>1.157925009727478</v>
       </c>
       <c r="B1">
-        <v>2.326397406816409</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>1.99118645552885</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.758848914071082</v>
+        <v>1.712170481681824</v>
       </c>
       <c r="E1">
-        <v>1.479592382307317</v>
+        <v>1.069860339164734</v>
       </c>
     </row>
   </sheetData>
